--- a/src/main/resources/templates/template.xlsx
+++ b/src/main/resources/templates/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikul\IdeaProjects\Schedule\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\IdeaProjects\Schedule\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD7E33F-05DA-4C0C-B6E4-A80851C67C0A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1FF565-299F-4E28-ACF5-0F74A0426894}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{EF195A5D-84D4-466A-A6D4-28A16D8128E2}"/>
+    <workbookView xWindow="29340" yWindow="30" windowWidth="22230" windowHeight="20670" xr2:uid="{EF195A5D-84D4-466A-A6D4-28A16D8128E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Расписание" sheetId="1" r:id="rId1"/>
@@ -20,32 +20,14 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>РАСПИСАНИЕ</t>
-  </si>
-  <si>
-    <t>ФАКУЛЬТЕТ</t>
-  </si>
-  <si>
-    <t>УЧЕБНЫХ ЗАНЯТИЙ НА ОСЕННИЙ СЕМЕСТР</t>
-  </si>
-  <si>
-    <t>КУРС</t>
-  </si>
-  <si>
-    <t>2023/2024 УЧЕБНЫЙ ГОД</t>
   </si>
   <si>
     <t>УЧЕБНАЯ ГРУППА</t>
@@ -84,49 +66,16 @@
     <t>понедельник</t>
   </si>
   <si>
-    <t>КР</t>
-  </si>
-  <si>
-    <t>ЭКЗ</t>
-  </si>
-  <si>
     <t>1-2</t>
   </si>
   <si>
     <t>9.00-10.35</t>
   </si>
   <si>
-    <t>МА</t>
-  </si>
-  <si>
-    <t>ИНФ</t>
-  </si>
-  <si>
-    <t>ВИ</t>
-  </si>
-  <si>
-    <t>Ф</t>
-  </si>
-  <si>
-    <t>БЖД</t>
-  </si>
-  <si>
-    <t>АГ</t>
-  </si>
-  <si>
-    <t>ИКС</t>
-  </si>
-  <si>
     <t>3-4</t>
   </si>
   <si>
     <t>10.45-12.20</t>
-  </si>
-  <si>
-    <t>ИР</t>
-  </si>
-  <si>
-    <t>ОВП</t>
   </si>
   <si>
     <t>5-6</t>
@@ -144,19 +93,7 @@
     <t>вторник</t>
   </si>
   <si>
-    <t>ИГ</t>
-  </si>
-  <si>
-    <t>ИЯ</t>
-  </si>
-  <si>
-    <t>ЗО</t>
-  </si>
-  <si>
     <t>среда</t>
-  </si>
-  <si>
-    <t>ФП</t>
   </si>
   <si>
     <t>четверг</t>
@@ -210,271 +147,10 @@
     <t>сдача</t>
   </si>
   <si>
-    <t>Аналитическая геометрия и линейная алгебра</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>Кочанова Т.В.</t>
-  </si>
-  <si>
-    <t>44-58</t>
-  </si>
-  <si>
-    <t>931-936</t>
-  </si>
-  <si>
-    <t>Математический анализ</t>
-  </si>
-  <si>
-    <t>Сытенко Н.В. Кфмн</t>
-  </si>
-  <si>
-    <t>Родионова М.С.</t>
-  </si>
-  <si>
-    <t>44-50</t>
-  </si>
-  <si>
-    <t>Физика</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Петрова Д.Г., кпн, доцент</t>
-  </si>
-  <si>
-    <t>Петрова Д.Г., кпн, доцент, Прищепенок О.Б.</t>
-  </si>
-  <si>
-    <t>42-54</t>
-  </si>
-  <si>
-    <t>Информатика</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>п/п-к Касавцев М.Ю. ктн, м-р Зоткин М.Ю. ктн</t>
-  </si>
-  <si>
-    <t>Ильченко М.А., п/п-к Касавцев М.Ю. ктн</t>
-  </si>
-  <si>
-    <t>28-44</t>
-  </si>
-  <si>
-    <t>История России</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>Загоскин Б.В., Завьялов Д.А. кин</t>
-  </si>
-  <si>
-    <t>24-24</t>
-  </si>
-  <si>
-    <t>Безопасность жизнедеятельности</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Дидык О.И., п-к Чернышев С.В., п/п-к Шмалько С.А. ктн</t>
-  </si>
-  <si>
-    <t>22-26</t>
-  </si>
-  <si>
-    <t>Инженерная графика</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>Карпов А.Л.</t>
-  </si>
-  <si>
-    <t>Карпов А.Л., Мельников А.А, Цымбалов  И.Н.</t>
-  </si>
-  <si>
-    <t>16-32</t>
-  </si>
-  <si>
-    <t>Военная история</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>п/п-к Девин Н.Н. квн</t>
-  </si>
-  <si>
-    <t>18-18</t>
-  </si>
-  <si>
-    <t>Иностранный язык</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>Швец Т.А.</t>
-  </si>
-  <si>
-    <t>2-34</t>
-  </si>
-  <si>
-    <t>Общевоенная подготовка</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>0-12</t>
-  </si>
-  <si>
-    <t>Физическая подготовка</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>Чихачев А.Ю. кпн проф,
-Драница Н.В.,
-Коваленко В.Н. кпн доц</t>
-  </si>
-  <si>
-    <t>2-22</t>
-  </si>
-  <si>
-    <t>Обозначения видов занятий:</t>
-  </si>
-  <si>
-    <t>Обозначения аудиторий:</t>
-  </si>
-  <si>
-    <t>л</t>
-  </si>
-  <si>
-    <t>лекция (без знака)</t>
-  </si>
-  <si>
-    <t>кр</t>
-  </si>
-  <si>
-    <t>контрольная работа</t>
-  </si>
-  <si>
-    <t>3,4…</t>
-  </si>
-  <si>
-    <t>учебный корпус</t>
-  </si>
-  <si>
-    <t>НАЧАЛЬНИК  9 ФАКУЛЬТЕТА</t>
-  </si>
-  <si>
-    <t>с</t>
-  </si>
-  <si>
-    <t>семинар</t>
-  </si>
-  <si>
-    <t>зч,зо</t>
-  </si>
-  <si>
-    <t>зачет, зачет с оценкой</t>
-  </si>
-  <si>
-    <t>ПОЛКОВНИК</t>
-  </si>
-  <si>
-    <t>у</t>
-  </si>
-  <si>
-    <t>групповые упражнения</t>
-  </si>
-  <si>
-    <t>экз</t>
-  </si>
-  <si>
-    <t>экзамен</t>
-  </si>
-  <si>
-    <t>В.АЛЕЙНИК</t>
-  </si>
-  <si>
-    <t>лр</t>
-  </si>
-  <si>
-    <t>лабораторные занятия</t>
-  </si>
-  <si>
-    <t>гз</t>
-  </si>
-  <si>
-    <t>групповые занятия</t>
-  </si>
-  <si>
-    <t>п</t>
-  </si>
-  <si>
-    <t>практические занятия</t>
-  </si>
-  <si>
-    <t>Другие обозначения:</t>
-  </si>
-  <si>
     <t xml:space="preserve">       </t>
   </si>
   <si>
-    <t>р</t>
-  </si>
-  <si>
-    <t>СР под руководстовом преподавателя</t>
-  </si>
-  <si>
-    <t>пв</t>
-  </si>
-  <si>
-    <t>полевой выход</t>
-  </si>
-  <si>
-    <t>т</t>
-  </si>
-  <si>
-    <t>тактико-специальные занятия</t>
-  </si>
-  <si>
-    <t>УМО</t>
-  </si>
-  <si>
-    <t>диспансеризация</t>
-  </si>
-  <si>
-    <t>кп</t>
-  </si>
-  <si>
-    <t>курсовой проект, работа</t>
-  </si>
-  <si>
-    <t>контрольные мероприятия</t>
-  </si>
-  <si>
-    <t>рту</t>
-  </si>
-  <si>
-    <t>ротно-тактические учения</t>
-  </si>
-  <si>
-    <t>ст.л-т Смирнов В.В., ст. л-т Фролов Ю.Ю., 
-л-т Талаев М.Н.</t>
+    <t>УЧЕБНЫХ ЗАНЯТИЙ</t>
   </si>
 </sst>
 </file>
@@ -990,7 +666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1428,15 +1104,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1763,7 +1430,7 @@
   <dimension ref="A1:AC112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1781,9 +1448,7 @@
         <v>0</v>
       </c>
       <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="84"/>
       <c r="Q1" s="85"/>
@@ -1796,13 +1461,11 @@
     </row>
     <row r="3" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="O3" s="1"/>
       <c r="P3" s="84"/>
       <c r="Q3" s="85"/>
     </row>
@@ -1813,18 +1476,16 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="86"/>
       <c r="Q5" s="87"/>
       <c r="S5" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -1837,7 +1498,7 @@
     <row r="7" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6">
@@ -1923,43 +1584,43 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" s="89" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
       <c r="H8" s="91"/>
       <c r="I8" s="89" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
       <c r="L8" s="90"/>
       <c r="M8" s="91"/>
       <c r="N8" s="89" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O8" s="90"/>
       <c r="P8" s="90"/>
       <c r="Q8" s="91"/>
       <c r="R8" s="89" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S8" s="90"/>
       <c r="T8" s="90"/>
       <c r="U8" s="91"/>
       <c r="V8" s="92" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="W8" s="93"/>
       <c r="X8" s="93"/>
       <c r="Y8" s="93"/>
       <c r="Z8" s="94"/>
       <c r="AA8" s="92" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AB8" s="93"/>
       <c r="AC8" s="94"/>
@@ -1968,7 +1629,7 @@
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D9" s="69"/>
       <c r="E9" s="70"/>
@@ -1999,7 +1660,7 @@
     </row>
     <row r="10" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="81" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -2033,10 +1694,10 @@
     <row r="11" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="82"/>
       <c r="B11" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="18"/>
@@ -2130,10 +1791,10 @@
     <row r="14" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="82"/>
       <c r="B14" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="18"/>
@@ -2227,10 +1888,10 @@
     <row r="17" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="82"/>
       <c r="B17" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="18"/>
@@ -2324,10 +1985,10 @@
     <row r="20" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="82"/>
       <c r="B20" s="16" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D20" s="79"/>
       <c r="E20" s="23"/>
@@ -2420,7 +2081,7 @@
     </row>
     <row r="23" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="81" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
@@ -2454,10 +2115,10 @@
     <row r="24" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="82"/>
       <c r="B24" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="18"/>
@@ -2551,10 +2212,10 @@
     <row r="27" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="82"/>
       <c r="B27" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="18"/>
@@ -2648,10 +2309,10 @@
     <row r="30" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="82"/>
       <c r="B30" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="18"/>
@@ -2745,10 +2406,10 @@
     <row r="33" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="82"/>
       <c r="B33" s="16" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D33" s="79"/>
       <c r="E33" s="23"/>
@@ -2841,7 +2502,7 @@
     </row>
     <row r="36" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="81" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -2875,10 +2536,10 @@
     <row r="37" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="82"/>
       <c r="B37" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="18"/>
@@ -2972,10 +2633,10 @@
     <row r="40" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="82"/>
       <c r="B40" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
@@ -3069,10 +2730,10 @@
     <row r="43" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="82"/>
       <c r="B43" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="18"/>
@@ -3166,10 +2827,10 @@
     <row r="46" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="82"/>
       <c r="B46" s="16" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D46" s="79"/>
       <c r="E46" s="23"/>
@@ -3262,7 +2923,7 @@
     </row>
     <row r="49" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="81" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -3296,10 +2957,10 @@
     <row r="50" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="82"/>
       <c r="B50" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D50" s="23"/>
       <c r="E50" s="18"/>
@@ -3393,10 +3054,10 @@
     <row r="53" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="82"/>
       <c r="B53" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D53" s="23"/>
       <c r="E53" s="18"/>
@@ -3490,10 +3151,10 @@
     <row r="56" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="82"/>
       <c r="B56" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D56" s="23"/>
       <c r="E56" s="18"/>
@@ -3587,10 +3248,10 @@
     <row r="59" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="82"/>
       <c r="B59" s="16" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D59" s="79"/>
       <c r="E59" s="23"/>
@@ -3683,7 +3344,7 @@
     </row>
     <row r="62" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="81" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -3717,10 +3378,10 @@
     <row r="63" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="82"/>
       <c r="B63" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
@@ -3814,10 +3475,10 @@
     <row r="66" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="82"/>
       <c r="B66" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
@@ -3911,10 +3572,10 @@
     <row r="69" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="82"/>
       <c r="B69" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D69" s="23"/>
       <c r="E69" s="23"/>
@@ -4008,10 +3669,10 @@
     <row r="72" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="82"/>
       <c r="B72" s="16" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
@@ -4104,7 +3765,7 @@
     </row>
     <row r="75" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="95" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
@@ -4138,10 +3799,10 @@
     <row r="76" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="95"/>
       <c r="B76" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D76" s="18"/>
       <c r="E76" s="18"/>
@@ -4235,10 +3896,10 @@
     <row r="79" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="95"/>
       <c r="B79" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
@@ -4332,10 +3993,10 @@
     <row r="82" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="95"/>
       <c r="B82" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="18"/>
@@ -4409,11 +4070,11 @@
     </row>
     <row r="85" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="97" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B85" s="98"/>
       <c r="C85" s="103" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D85" s="104"/>
       <c r="E85" s="104"/>
@@ -4422,17 +4083,17 @@
       <c r="H85" s="104"/>
       <c r="I85" s="105"/>
       <c r="J85" s="112" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="K85" s="115" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="L85" s="116"/>
       <c r="M85" s="116"/>
       <c r="N85" s="116"/>
       <c r="O85" s="117"/>
       <c r="P85" s="115" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="Q85" s="116"/>
       <c r="R85" s="116"/>
@@ -4441,17 +4102,17 @@
       <c r="U85" s="116"/>
       <c r="V85" s="117"/>
       <c r="W85" s="124" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="X85" s="112" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="Y85" s="127" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="Z85" s="128"/>
       <c r="AA85" s="133" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="AB85" s="134"/>
       <c r="AC85" s="135"/>
@@ -4468,7 +4129,7 @@
       <c r="I86" s="108"/>
       <c r="J86" s="113"/>
       <c r="K86" s="136" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="L86" s="137"/>
       <c r="M86" s="137"/>
@@ -4486,7 +4147,7 @@
       <c r="Y86" s="129"/>
       <c r="Z86" s="130"/>
       <c r="AA86" s="142" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AB86" s="143"/>
       <c r="AC86" s="144"/>
@@ -4519,523 +4180,351 @@
       <c r="Y87" s="131"/>
       <c r="Z87" s="132"/>
       <c r="AA87" s="39" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="AB87" s="39" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="AC87" s="39" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="145" t="s">
-        <v>26</v>
-      </c>
+      <c r="A88" s="145"/>
       <c r="B88" s="146"/>
-      <c r="C88" s="147" t="s">
-        <v>59</v>
-      </c>
+      <c r="C88" s="147"/>
       <c r="D88" s="148"/>
       <c r="E88" s="148"/>
       <c r="F88" s="148"/>
       <c r="G88" s="148"/>
       <c r="H88" s="148"/>
       <c r="I88" s="149"/>
-      <c r="J88" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="K88" s="150" t="s">
-        <v>61</v>
-      </c>
+      <c r="J88" s="40"/>
+      <c r="K88" s="150"/>
       <c r="L88" s="151"/>
       <c r="M88" s="151"/>
       <c r="N88" s="151"/>
       <c r="O88" s="152"/>
-      <c r="P88" s="150" t="s">
-        <v>61</v>
-      </c>
+      <c r="P88" s="150"/>
       <c r="Q88" s="151"/>
       <c r="R88" s="151"/>
       <c r="S88" s="151"/>
       <c r="T88" s="151"/>
       <c r="U88" s="151"/>
       <c r="V88" s="152"/>
-      <c r="W88" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="X88" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y88" s="153" t="s">
-        <v>63</v>
-      </c>
+      <c r="W88" s="64"/>
+      <c r="X88" s="41"/>
+      <c r="Y88" s="153"/>
       <c r="Z88" s="153"/>
       <c r="AA88" s="42"/>
       <c r="AB88" s="42"/>
       <c r="AC88" s="43"/>
     </row>
     <row r="89" spans="1:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="154" t="s">
-        <v>21</v>
-      </c>
+      <c r="A89" s="154"/>
       <c r="B89" s="155"/>
-      <c r="C89" s="147" t="s">
-        <v>64</v>
-      </c>
+      <c r="C89" s="147"/>
       <c r="D89" s="148"/>
       <c r="E89" s="148"/>
       <c r="F89" s="148"/>
       <c r="G89" s="148"/>
       <c r="H89" s="148"/>
       <c r="I89" s="149"/>
-      <c r="J89" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="K89" s="150" t="s">
-        <v>65</v>
-      </c>
+      <c r="J89" s="40"/>
+      <c r="K89" s="150"/>
       <c r="L89" s="151"/>
       <c r="M89" s="151"/>
       <c r="N89" s="151"/>
       <c r="O89" s="152"/>
-      <c r="P89" s="150" t="s">
-        <v>66</v>
-      </c>
+      <c r="P89" s="150"/>
       <c r="Q89" s="151"/>
       <c r="R89" s="151"/>
       <c r="S89" s="151"/>
       <c r="T89" s="151"/>
       <c r="U89" s="151"/>
       <c r="V89" s="152"/>
-      <c r="W89" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="X89" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y89" s="153" t="s">
-        <v>63</v>
-      </c>
+      <c r="W89" s="64"/>
+      <c r="X89" s="41"/>
+      <c r="Y89" s="153"/>
       <c r="Z89" s="153"/>
       <c r="AA89" s="42"/>
       <c r="AB89" s="42"/>
       <c r="AC89" s="43"/>
     </row>
     <row r="90" spans="1:29" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="154" t="s">
-        <v>24</v>
-      </c>
+      <c r="A90" s="154"/>
       <c r="B90" s="155"/>
-      <c r="C90" s="147" t="s">
-        <v>68</v>
-      </c>
+      <c r="C90" s="147"/>
       <c r="D90" s="148"/>
       <c r="E90" s="148"/>
       <c r="F90" s="148"/>
       <c r="G90" s="148"/>
       <c r="H90" s="148"/>
       <c r="I90" s="149"/>
-      <c r="J90" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="K90" s="150" t="s">
-        <v>70</v>
-      </c>
+      <c r="J90" s="40"/>
+      <c r="K90" s="150"/>
       <c r="L90" s="151"/>
       <c r="M90" s="151"/>
       <c r="N90" s="151"/>
       <c r="O90" s="152"/>
-      <c r="P90" s="150" t="s">
-        <v>71</v>
-      </c>
+      <c r="P90" s="150"/>
       <c r="Q90" s="151"/>
       <c r="R90" s="151"/>
       <c r="S90" s="151"/>
       <c r="T90" s="151"/>
       <c r="U90" s="151"/>
       <c r="V90" s="152"/>
-      <c r="W90" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="X90" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y90" s="153" t="s">
-        <v>63</v>
-      </c>
+      <c r="W90" s="65"/>
+      <c r="X90" s="41"/>
+      <c r="Y90" s="153"/>
       <c r="Z90" s="153"/>
       <c r="AA90" s="42"/>
       <c r="AB90" s="42"/>
       <c r="AC90" s="43"/>
     </row>
     <row r="91" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="154" t="s">
-        <v>22</v>
-      </c>
+      <c r="A91" s="154"/>
       <c r="B91" s="155"/>
-      <c r="C91" s="147" t="s">
-        <v>73</v>
-      </c>
+      <c r="C91" s="147"/>
       <c r="D91" s="148"/>
       <c r="E91" s="148"/>
       <c r="F91" s="148"/>
       <c r="G91" s="148"/>
       <c r="H91" s="148"/>
       <c r="I91" s="149"/>
-      <c r="J91" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="K91" s="150" t="s">
-        <v>75</v>
-      </c>
+      <c r="J91" s="40"/>
+      <c r="K91" s="150"/>
       <c r="L91" s="151"/>
       <c r="M91" s="151"/>
       <c r="N91" s="151"/>
       <c r="O91" s="152"/>
-      <c r="P91" s="150" t="s">
-        <v>76</v>
-      </c>
+      <c r="P91" s="150"/>
       <c r="Q91" s="151"/>
       <c r="R91" s="151"/>
       <c r="S91" s="151"/>
       <c r="T91" s="151"/>
       <c r="U91" s="151"/>
       <c r="V91" s="152"/>
-      <c r="W91" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="X91" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y91" s="153" t="s">
-        <v>63</v>
-      </c>
+      <c r="W91" s="65"/>
+      <c r="X91" s="41"/>
+      <c r="Y91" s="153"/>
       <c r="Z91" s="153"/>
       <c r="AA91" s="42"/>
       <c r="AB91" s="42"/>
       <c r="AC91" s="43"/>
     </row>
     <row r="92" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="156" t="s">
-        <v>30</v>
-      </c>
+      <c r="A92" s="156"/>
       <c r="B92" s="157"/>
-      <c r="C92" s="158" t="s">
-        <v>78</v>
-      </c>
+      <c r="C92" s="158"/>
       <c r="D92" s="159"/>
       <c r="E92" s="159"/>
       <c r="F92" s="159"/>
       <c r="G92" s="159"/>
       <c r="H92" s="159"/>
       <c r="I92" s="160"/>
-      <c r="J92" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="K92" s="150" t="s">
-        <v>80</v>
-      </c>
+      <c r="J92" s="44"/>
+      <c r="K92" s="150"/>
       <c r="L92" s="151"/>
       <c r="M92" s="151"/>
       <c r="N92" s="151"/>
       <c r="O92" s="152"/>
-      <c r="P92" s="150" t="s">
-        <v>80</v>
-      </c>
+      <c r="P92" s="150"/>
       <c r="Q92" s="151"/>
       <c r="R92" s="151"/>
       <c r="S92" s="151"/>
       <c r="T92" s="151"/>
       <c r="U92" s="151"/>
       <c r="V92" s="152"/>
-      <c r="W92" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="X92" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y92" s="153" t="s">
-        <v>63</v>
-      </c>
+      <c r="W92" s="65"/>
+      <c r="X92" s="41"/>
+      <c r="Y92" s="153"/>
       <c r="Z92" s="153"/>
       <c r="AA92" s="42"/>
       <c r="AB92" s="42"/>
       <c r="AC92" s="43"/>
     </row>
     <row r="93" spans="1:29" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="154" t="s">
-        <v>25</v>
-      </c>
+      <c r="A93" s="154"/>
       <c r="B93" s="155"/>
-      <c r="C93" s="158" t="s">
-        <v>82</v>
-      </c>
+      <c r="C93" s="158"/>
       <c r="D93" s="159"/>
       <c r="E93" s="159"/>
       <c r="F93" s="159"/>
       <c r="G93" s="159"/>
       <c r="H93" s="159"/>
       <c r="I93" s="160"/>
-      <c r="J93" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="K93" s="150" t="s">
-        <v>84</v>
-      </c>
+      <c r="J93" s="44"/>
+      <c r="K93" s="150"/>
       <c r="L93" s="151"/>
       <c r="M93" s="151"/>
       <c r="N93" s="151"/>
       <c r="O93" s="152"/>
-      <c r="P93" s="150" t="s">
-        <v>84</v>
-      </c>
+      <c r="P93" s="150"/>
       <c r="Q93" s="151"/>
       <c r="R93" s="151"/>
       <c r="S93" s="151"/>
       <c r="T93" s="151"/>
       <c r="U93" s="151"/>
       <c r="V93" s="152"/>
-      <c r="W93" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="X93" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y93" s="153" t="s">
-        <v>63</v>
-      </c>
+      <c r="W93" s="66"/>
+      <c r="X93" s="45"/>
+      <c r="Y93" s="153"/>
       <c r="Z93" s="153"/>
       <c r="AA93" s="42"/>
       <c r="AB93" s="42"/>
       <c r="AC93" s="43"/>
     </row>
     <row r="94" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="154" t="s">
-        <v>37</v>
-      </c>
+      <c r="A94" s="154"/>
       <c r="B94" s="155"/>
-      <c r="C94" s="158" t="s">
-        <v>86</v>
-      </c>
+      <c r="C94" s="158"/>
       <c r="D94" s="159"/>
       <c r="E94" s="159"/>
       <c r="F94" s="159"/>
       <c r="G94" s="159"/>
       <c r="H94" s="159"/>
       <c r="I94" s="160"/>
-      <c r="J94" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="K94" s="161" t="s">
-        <v>88</v>
-      </c>
-      <c r="L94" s="162"/>
-      <c r="M94" s="162"/>
-      <c r="N94" s="162"/>
-      <c r="O94" s="163"/>
-      <c r="P94" s="161" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q94" s="162"/>
-      <c r="R94" s="162"/>
-      <c r="S94" s="162"/>
-      <c r="T94" s="162"/>
-      <c r="U94" s="162"/>
-      <c r="V94" s="163"/>
-      <c r="W94" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="X94" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y94" s="153" t="s">
-        <v>63</v>
-      </c>
+      <c r="J94" s="44"/>
+      <c r="K94" s="150"/>
+      <c r="L94" s="151"/>
+      <c r="M94" s="151"/>
+      <c r="N94" s="151"/>
+      <c r="O94" s="152"/>
+      <c r="P94" s="150"/>
+      <c r="Q94" s="151"/>
+      <c r="R94" s="151"/>
+      <c r="S94" s="151"/>
+      <c r="T94" s="151"/>
+      <c r="U94" s="151"/>
+      <c r="V94" s="152"/>
+      <c r="W94" s="66"/>
+      <c r="X94" s="41"/>
+      <c r="Y94" s="153"/>
       <c r="Z94" s="153"/>
       <c r="AA94" s="42"/>
       <c r="AB94" s="42"/>
       <c r="AC94" s="43"/>
     </row>
     <row r="95" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="156" t="s">
-        <v>23</v>
-      </c>
+      <c r="A95" s="156"/>
       <c r="B95" s="157"/>
-      <c r="C95" s="158" t="s">
-        <v>91</v>
-      </c>
+      <c r="C95" s="158"/>
       <c r="D95" s="159"/>
       <c r="E95" s="159"/>
       <c r="F95" s="159"/>
       <c r="G95" s="159"/>
       <c r="H95" s="159"/>
       <c r="I95" s="160"/>
-      <c r="J95" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="K95" s="150" t="s">
-        <v>93</v>
-      </c>
+      <c r="J95" s="44"/>
+      <c r="K95" s="150"/>
       <c r="L95" s="151"/>
       <c r="M95" s="151"/>
       <c r="N95" s="151"/>
       <c r="O95" s="152"/>
-      <c r="P95" s="150" t="s">
-        <v>93</v>
-      </c>
+      <c r="P95" s="150"/>
       <c r="Q95" s="151"/>
       <c r="R95" s="151"/>
       <c r="S95" s="151"/>
       <c r="T95" s="151"/>
       <c r="U95" s="151"/>
       <c r="V95" s="152"/>
-      <c r="W95" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="X95" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y95" s="153" t="s">
-        <v>63</v>
-      </c>
+      <c r="W95" s="67"/>
+      <c r="X95" s="46"/>
+      <c r="Y95" s="153"/>
       <c r="Z95" s="153"/>
       <c r="AA95" s="42"/>
       <c r="AB95" s="42"/>
       <c r="AC95" s="43"/>
     </row>
     <row r="96" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="156" t="s">
-        <v>38</v>
-      </c>
+      <c r="A96" s="156"/>
       <c r="B96" s="157"/>
-      <c r="C96" s="158" t="s">
-        <v>95</v>
-      </c>
+      <c r="C96" s="158"/>
       <c r="D96" s="159"/>
       <c r="E96" s="159"/>
       <c r="F96" s="159"/>
       <c r="G96" s="159"/>
       <c r="H96" s="159"/>
       <c r="I96" s="160"/>
-      <c r="J96" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="K96" s="150" t="s">
-        <v>97</v>
-      </c>
+      <c r="J96" s="44"/>
+      <c r="K96" s="150"/>
       <c r="L96" s="151"/>
       <c r="M96" s="151"/>
       <c r="N96" s="151"/>
       <c r="O96" s="152"/>
-      <c r="P96" s="150" t="s">
-        <v>97</v>
-      </c>
+      <c r="P96" s="150"/>
       <c r="Q96" s="151"/>
       <c r="R96" s="151"/>
       <c r="S96" s="151"/>
       <c r="T96" s="151"/>
       <c r="U96" s="151"/>
       <c r="V96" s="152"/>
-      <c r="W96" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="X96" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y96" s="153" t="s">
-        <v>63</v>
-      </c>
+      <c r="W96" s="66"/>
+      <c r="X96" s="41"/>
+      <c r="Y96" s="153"/>
       <c r="Z96" s="153"/>
       <c r="AA96" s="42"/>
       <c r="AB96" s="42"/>
       <c r="AC96" s="43"/>
     </row>
     <row r="97" spans="1:29" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="156" t="s">
-        <v>31</v>
-      </c>
+      <c r="A97" s="156"/>
       <c r="B97" s="157"/>
-      <c r="C97" s="158" t="s">
-        <v>99</v>
-      </c>
+      <c r="C97" s="158"/>
       <c r="D97" s="159"/>
       <c r="E97" s="159"/>
       <c r="F97" s="159"/>
       <c r="G97" s="159"/>
       <c r="H97" s="159"/>
       <c r="I97" s="160"/>
-      <c r="J97" s="44" t="s">
-        <v>100</v>
-      </c>
+      <c r="J97" s="44"/>
       <c r="K97" s="150"/>
       <c r="L97" s="151"/>
       <c r="M97" s="151"/>
       <c r="N97" s="151"/>
       <c r="O97" s="152"/>
-      <c r="P97" s="150" t="s">
-        <v>146</v>
-      </c>
+      <c r="P97" s="150"/>
       <c r="Q97" s="151"/>
       <c r="R97" s="151"/>
       <c r="S97" s="151"/>
       <c r="T97" s="151"/>
       <c r="U97" s="151"/>
       <c r="V97" s="152"/>
-      <c r="W97" s="65" t="s">
-        <v>101</v>
-      </c>
+      <c r="W97" s="65"/>
       <c r="X97" s="41"/>
-      <c r="Y97" s="153" t="s">
-        <v>63</v>
-      </c>
+      <c r="Y97" s="153"/>
       <c r="Z97" s="153"/>
       <c r="AA97" s="42"/>
       <c r="AB97" s="47"/>
       <c r="AC97" s="43"/>
     </row>
     <row r="98" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="156" t="s">
-        <v>41</v>
-      </c>
+      <c r="A98" s="156"/>
       <c r="B98" s="157"/>
-      <c r="C98" s="147" t="s">
-        <v>102</v>
-      </c>
+      <c r="C98" s="147"/>
       <c r="D98" s="148"/>
       <c r="E98" s="148"/>
       <c r="F98" s="148"/>
       <c r="G98" s="148"/>
       <c r="H98" s="148"/>
       <c r="I98" s="149"/>
-      <c r="J98" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="K98" s="164" t="s">
-        <v>104</v>
-      </c>
-      <c r="L98" s="164"/>
-      <c r="M98" s="164"/>
-      <c r="N98" s="164"/>
-      <c r="O98" s="164"/>
-      <c r="P98" s="164" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q98" s="164"/>
-      <c r="R98" s="164"/>
-      <c r="S98" s="164"/>
-      <c r="T98" s="164"/>
-      <c r="U98" s="164"/>
-      <c r="V98" s="164"/>
-      <c r="W98" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="X98" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y98" s="153" t="s">
-        <v>63</v>
-      </c>
+      <c r="J98" s="44"/>
+      <c r="K98" s="161"/>
+      <c r="L98" s="161"/>
+      <c r="M98" s="161"/>
+      <c r="N98" s="161"/>
+      <c r="O98" s="161"/>
+      <c r="P98" s="161"/>
+      <c r="Q98" s="161"/>
+      <c r="R98" s="161"/>
+      <c r="S98" s="161"/>
+      <c r="T98" s="161"/>
+      <c r="U98" s="161"/>
+      <c r="V98" s="161"/>
+      <c r="W98" s="68"/>
+      <c r="X98" s="41"/>
+      <c r="Y98" s="153"/>
       <c r="Z98" s="153"/>
       <c r="AA98" s="42"/>
       <c r="AB98" s="42"/>
@@ -5073,41 +4562,15 @@
       <c r="AC99" s="53"/>
     </row>
     <row r="100" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O100" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="A100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="O100" s="1"/>
       <c r="V100" s="54"/>
       <c r="AB100" s="53"/>
       <c r="AC100" s="53"/>
     </row>
     <row r="101" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>108</v>
-      </c>
-      <c r="B101" t="s">
-        <v>109</v>
-      </c>
-      <c r="H101" t="s">
-        <v>110</v>
-      </c>
-      <c r="I101" t="s">
-        <v>111</v>
-      </c>
-      <c r="O101" t="s">
-        <v>112</v>
-      </c>
-      <c r="P101" t="s">
-        <v>113</v>
-      </c>
-      <c r="T101" s="55" t="s">
-        <v>114</v>
-      </c>
+      <c r="T101" s="55"/>
       <c r="V101" s="53"/>
       <c r="W101" s="55"/>
       <c r="X101" s="55"/>
@@ -5118,21 +4581,7 @@
       <c r="AC101" s="53"/>
     </row>
     <row r="102" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>115</v>
-      </c>
-      <c r="B102" t="s">
-        <v>116</v>
-      </c>
-      <c r="H102" t="s">
-        <v>117</v>
-      </c>
-      <c r="I102" t="s">
-        <v>118</v>
-      </c>
-      <c r="T102" s="55" t="s">
-        <v>119</v>
-      </c>
+      <c r="T102" s="55"/>
       <c r="V102" s="53"/>
       <c r="W102" s="55"/>
       <c r="X102" s="55"/>
@@ -5143,43 +4592,17 @@
       <c r="AC102" s="53"/>
     </row>
     <row r="103" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>120</v>
-      </c>
-      <c r="B103" t="s">
-        <v>121</v>
-      </c>
-      <c r="H103" t="s">
-        <v>122</v>
-      </c>
-      <c r="I103" t="s">
-        <v>123</v>
-      </c>
       <c r="O103" s="57"/>
       <c r="V103" s="56"/>
       <c r="W103" s="56"/>
       <c r="X103" s="56"/>
-      <c r="Y103" s="55" t="s">
-        <v>124</v>
-      </c>
+      <c r="Y103" s="55"/>
       <c r="Z103" s="53"/>
       <c r="AA103" s="58"/>
       <c r="AB103" s="53"/>
       <c r="AC103" s="53"/>
     </row>
     <row r="104" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>125</v>
-      </c>
-      <c r="B104" t="s">
-        <v>126</v>
-      </c>
-      <c r="H104" t="s">
-        <v>127</v>
-      </c>
-      <c r="I104" t="s">
-        <v>128</v>
-      </c>
       <c r="O104" s="57"/>
       <c r="V104" s="59"/>
       <c r="W104" s="59"/>
@@ -5191,20 +4614,12 @@
       <c r="AC104" s="53"/>
     </row>
     <row r="105" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>129</v>
-      </c>
-      <c r="B105" t="s">
-        <v>130</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="H105" s="1"/>
       <c r="V105" s="59"/>
       <c r="W105" s="59"/>
       <c r="X105" s="53"/>
       <c r="Y105" s="53" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="Z105" s="53"/>
       <c r="AA105" s="53"/>
@@ -5212,54 +4627,16 @@
       <c r="AC105" s="53"/>
     </row>
     <row r="106" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>133</v>
-      </c>
-      <c r="B106" t="s">
-        <v>134</v>
-      </c>
-      <c r="H106" t="s">
-        <v>135</v>
-      </c>
-      <c r="I106" t="s">
-        <v>136</v>
-      </c>
       <c r="AB106" s="53"/>
       <c r="AC106" s="53"/>
     </row>
     <row r="107" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>137</v>
-      </c>
-      <c r="B107" t="s">
-        <v>138</v>
-      </c>
-      <c r="H107" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="I107" t="s">
-        <v>140</v>
-      </c>
+      <c r="H107" s="60"/>
     </row>
     <row r="108" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>141</v>
-      </c>
-      <c r="B108" t="s">
-        <v>142</v>
-      </c>
       <c r="H108" s="61"/>
-      <c r="I108" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="109" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>144</v>
-      </c>
-      <c r="B109" t="s">
-        <v>145</v>
-      </c>
       <c r="H109" s="62"/>
       <c r="Y109" s="63"/>
       <c r="Z109" s="53"/>
